--- a/mallar/import/Trähäst feb 2024/extraktion.xlsx
+++ b/mallar/import/Trähäst feb 2024/extraktion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\Trähäst feb 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB61B4-66D0-49CF-A4E1-7C5892F1AE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB546F-EB08-4361-895A-1DA95A1F7C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="5430" windowWidth="25155" windowHeight="21000" tabRatio="803" activeTab="1" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="803" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="188">
   <si>
     <t>SE</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Elsa Dahlen</t>
   </si>
   <si>
-    <t>Linnea Pederssen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Karolina Larsson </t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>1* eller 2*inväntar svar</t>
-  </si>
-  <si>
     <t>2*</t>
   </si>
   <si>
@@ -338,18 +332,12 @@
     <t xml:space="preserve">Inspring: Lovisa, Sofia, Tuva </t>
   </si>
   <si>
-    <t>Helene Ström, helenest@live.se, 070-8966344</t>
-  </si>
-  <si>
     <t>Movie utanför cupen med bedömning</t>
   </si>
   <si>
     <t>Inspring: Mirabel, Ebba W, Lily, Vera (Idun?)</t>
   </si>
   <si>
-    <t>Mia Kumm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inspring: Thea, Alva, Novalie </t>
   </si>
   <si>
@@ -371,9 +359,6 @@
     <t>Uppsala Team Cassiopeia</t>
   </si>
   <si>
-    <t>Team Glarea</t>
-  </si>
-  <si>
     <t>Bedömning</t>
   </si>
   <si>
@@ -432,13 +417,199 @@
   </si>
   <si>
     <t>Showklass par</t>
+  </si>
+  <si>
+    <t>Agnes_Viklund</t>
+  </si>
+  <si>
+    <t>Olivia_Nyberg</t>
+  </si>
+  <si>
+    <t>Ebba Alva</t>
+  </si>
+  <si>
+    <t>Thea Mirabel</t>
+  </si>
+  <si>
+    <t>Novalie Ebba</t>
+  </si>
+  <si>
+    <t>Nora Hilma</t>
+  </si>
+  <si>
+    <t>Lag Rosa Äldre</t>
+  </si>
+  <si>
+    <t>Erik Linnea</t>
+  </si>
+  <si>
+    <t>Team Enyo (Show)</t>
+  </si>
+  <si>
+    <t>Cecilia_Viklund</t>
+  </si>
+  <si>
+    <t>Linnea_Viklund</t>
+  </si>
+  <si>
+    <t>Tyra_Karlsson</t>
+  </si>
+  <si>
+    <t>Team Andromeda</t>
+  </si>
+  <si>
+    <t>Ariah Fischer</t>
+  </si>
+  <si>
+    <t>Elna Stidelius</t>
+  </si>
+  <si>
+    <t>Melenie Edfeldt</t>
+  </si>
+  <si>
+    <t>Sigrid Stidelius</t>
+  </si>
+  <si>
+    <t>Rosa Sigfridsson</t>
+  </si>
+  <si>
+    <t>Leelo Lennerman</t>
+  </si>
+  <si>
+    <t>Blå 12</t>
+  </si>
+  <si>
+    <t>Blå 13</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Blå 11</t>
+  </si>
+  <si>
+    <t>Svart 13</t>
+  </si>
+  <si>
+    <t>Blå 10</t>
+  </si>
+  <si>
+    <t>Vit 7</t>
+  </si>
+  <si>
+    <t>Svart 15</t>
+  </si>
+  <si>
+    <t>Blå 5</t>
+  </si>
+  <si>
+    <t>Blå 7</t>
+  </si>
+  <si>
+    <t>Blå 8</t>
+  </si>
+  <si>
+    <t>Svart 14</t>
+  </si>
+  <si>
+    <t>Blå 4</t>
+  </si>
+  <si>
+    <t>Svart 11</t>
+  </si>
+  <si>
+    <t>Vit 14</t>
+  </si>
+  <si>
+    <t>Blå 3</t>
+  </si>
+  <si>
+    <t>Blå 2</t>
+  </si>
+  <si>
+    <t>Svart 12</t>
+  </si>
+  <si>
+    <t>Vit 8</t>
+  </si>
+  <si>
+    <t>Blå 1</t>
+  </si>
+  <si>
+    <t>Blå 9</t>
+  </si>
+  <si>
+    <t>Svart 8</t>
+  </si>
+  <si>
+    <t>Svart 10</t>
+  </si>
+  <si>
+    <t>Vit 15</t>
+  </si>
+  <si>
+    <t>Vit 10</t>
+  </si>
+  <si>
+    <t>Blå 6</t>
+  </si>
+  <si>
+    <t>Svart 16</t>
+  </si>
+  <si>
+    <t>Vit 20</t>
+  </si>
+  <si>
+    <t>Vit 11</t>
+  </si>
+  <si>
+    <t>Svart 7</t>
+  </si>
+  <si>
+    <t>Vit 13</t>
+  </si>
+  <si>
+    <t>Vit 21</t>
+  </si>
+  <si>
+    <t>Vit 22</t>
+  </si>
+  <si>
+    <t>Vit 12</t>
+  </si>
+  <si>
+    <t>Blå 15</t>
+  </si>
+  <si>
+    <t>Blå 14</t>
+  </si>
+  <si>
+    <t>Svart 9</t>
+  </si>
+  <si>
+    <t>Vit 23</t>
+  </si>
+  <si>
+    <t>My Jansson Ruutikainen</t>
+  </si>
+  <si>
+    <t>Vit 9</t>
+  </si>
+  <si>
+    <t>Trä</t>
+  </si>
+  <si>
+    <t>Team Glaea</t>
+  </si>
+  <si>
+    <t>Alicia Selmeryd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,8 +644,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +669,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,9 +757,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +780,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -617,9 +810,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -657,7 +850,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -763,7 +956,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -905,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -915,18 +1108,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="8.86328125" style="1"/>
     <col min="3" max="3" width="64.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.53125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" style="13" customWidth="1"/>
     <col min="8" max="8" width="11.1328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" style="1" customWidth="1"/>
     <col min="10" max="11" width="21.9296875" style="1" customWidth="1"/>
@@ -948,13 +1141,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>114</v>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>14</v>
@@ -963,28 +1156,28 @@
         <v>15</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="U1" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
@@ -995,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3">
         <v>1001</v>
@@ -1013,16 +1206,16 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1030,9 +1223,6 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="U2">
-        <v>175</v>
-      </c>
     </row>
     <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
@@ -1042,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3">
         <v>1001</v>
@@ -1057,17 +1247,20 @@
         <v>9</v>
       </c>
       <c r="H3" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="9"/>
       <c r="L3" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1075,12 +1268,6 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" t="s">
-        <v>99</v>
-      </c>
-      <c r="U3">
-        <v>1825</v>
-      </c>
     </row>
     <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4">
@@ -1090,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3">
         <v>1001</v>
@@ -1105,17 +1292,20 @@
         <v>9</v>
       </c>
       <c r="H4" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="9"/>
       <c r="L4" s="1">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1124,15 +1314,15 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:25" s="6" customFormat="1" ht="26.55" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="5">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>77</v>
+    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
       </c>
       <c r="D5" s="3">
         <v>1001</v>
@@ -1147,36 +1337,37 @@
         <v>9</v>
       </c>
       <c r="H5" s="4">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>100</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="1">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:25" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="5">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>77</v>
+        <v>27</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="3">
         <v>1001</v>
@@ -1191,36 +1382,37 @@
         <v>9</v>
       </c>
       <c r="H6" s="4">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>100</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="9"/>
       <c r="L6" s="1">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3">
         <v>1001</v>
@@ -1238,16 +1430,17 @@
         <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="1">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1255,16 +1448,22 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="3">
         <v>1001</v>
@@ -1282,17 +1481,15 @@
         <v>11</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1300,16 +1497,22 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" s="3">
         <v>1001</v>
@@ -1327,17 +1530,15 @@
         <v>11</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1345,16 +1546,22 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3">
         <v>1001</v>
@@ -1372,17 +1579,15 @@
         <v>11</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="1">
-        <v>155</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>27</v>
+        <v>165</v>
+      </c>
+      <c r="M10" t="s">
+        <v>144</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1391,7 +1596,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1399,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3">
         <v>1001</v>
@@ -1417,17 +1622,16 @@
         <v>11</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="L11" s="1">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1438,13 +1642,13 @@
     </row>
     <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3">
         <v>1001</v>
@@ -1459,18 +1663,18 @@
         <v>9</v>
       </c>
       <c r="H12" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="1">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1478,19 +1682,22 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3">
         <v>1001</v>
@@ -1505,18 +1712,20 @@
         <v>9</v>
       </c>
       <c r="H13" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="1">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1524,16 +1733,22 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3">
         <v>1001</v>
@@ -1548,18 +1763,20 @@
         <v>9</v>
       </c>
       <c r="H14" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="1">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1567,16 +1784,22 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3">
         <v>1001</v>
@@ -1591,18 +1814,18 @@
         <v>9</v>
       </c>
       <c r="H15" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1610,16 +1833,22 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3">
         <v>1001</v>
@@ -1634,18 +1863,18 @@
         <v>9</v>
       </c>
       <c r="H16" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="1">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1653,16 +1882,22 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3">
         <v>1001</v>
@@ -1677,18 +1912,20 @@
         <v>9</v>
       </c>
       <c r="H17" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="1">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1696,16 +1933,22 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3">
         <v>1001</v>
@@ -1720,18 +1963,18 @@
         <v>9</v>
       </c>
       <c r="H18" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="1">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1739,16 +1982,22 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" s="6" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3">
         <v>1001</v>
@@ -1763,37 +2012,41 @@
         <v>9</v>
       </c>
       <c r="H19" s="4">
-        <v>12</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
-        <v>79</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="1">
-        <v>150</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:25" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="3">
         <v>1001</v>
@@ -1808,35 +2061,41 @@
         <v>9</v>
       </c>
       <c r="H20" s="4">
-        <v>12</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="1">
-        <v>106</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
-        <v>80</v>
+        <v>117</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25" s="6" customFormat="1" ht="26.55" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="5">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="3">
         <v>1001</v>
@@ -1844,48 +2103,43 @@
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>101</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
+      <c r="G21" t="s">
+        <v>147</v>
       </c>
       <c r="H21" s="4">
-        <v>13</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="L21" s="1">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
+        <v>23</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:25" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D22" s="3">
         <v>1001</v>
@@ -1893,76 +2147,71 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>101</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>9</v>
+      <c r="G22" t="s">
+        <v>147</v>
       </c>
       <c r="H22" s="4">
-        <v>11</v>
-      </c>
-      <c r="I22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="4"/>
+      <c r="J22" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="L22" s="1">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D23" s="3">
         <v>1001</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
         <v>101</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>9</v>
+      <c r="G23" t="s">
+        <v>147</v>
       </c>
       <c r="H23" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1979,13 +2228,13 @@
     </row>
     <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D24" s="3">
         <v>1001</v>
@@ -1993,25 +2242,27 @@
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>101</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>9</v>
+      <c r="G24" t="s">
+        <v>147</v>
       </c>
       <c r="H24" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="1">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2026,15 +2277,15 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" s="3">
         <v>1001</v>
@@ -2042,27 +2293,27 @@
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>101</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>9</v>
+      <c r="G25" t="s">
+        <v>147</v>
       </c>
       <c r="H25" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="1">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2077,15 +2328,15 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:25" s="6" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D26" s="3">
         <v>1001</v>
@@ -2100,41 +2351,35 @@
         <v>9</v>
       </c>
       <c r="H26" s="4">
-        <v>11</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="1">
-        <v>121</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D27" s="3">
         <v>1001</v>
@@ -2149,18 +2394,18 @@
         <v>9</v>
       </c>
       <c r="H27" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2168,22 +2413,16 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="28" spans="1:25" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3">
         <v>1001</v>
@@ -2198,41 +2437,35 @@
         <v>9</v>
       </c>
       <c r="H28" s="4">
-        <v>11</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="1">
-        <v>122</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
     </row>
     <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3">
         <v>1001</v>
@@ -2247,18 +2480,18 @@
         <v>9</v>
       </c>
       <c r="H29" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="1">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2266,22 +2499,16 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D30" s="3">
         <v>1001</v>
@@ -2296,20 +2523,18 @@
         <v>9</v>
       </c>
       <c r="H30" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="1">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2317,22 +2542,16 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3">
         <v>1001</v>
@@ -2347,18 +2566,18 @@
         <v>9</v>
       </c>
       <c r="H31" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="1">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2366,22 +2585,16 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
     </row>
     <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3">
         <v>1001</v>
@@ -2396,18 +2609,18 @@
         <v>9</v>
       </c>
       <c r="H32" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="1">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2415,22 +2628,16 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3">
         <v>1001</v>
@@ -2445,20 +2652,18 @@
         <v>9</v>
       </c>
       <c r="H33" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="1">
-        <v>109</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>47</v>
+        <v>164</v>
+      </c>
+      <c r="M33" t="s">
+        <v>143</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2466,22 +2671,16 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3">
         <v>1001</v>
@@ -2496,67 +2695,35 @@
         <v>9</v>
       </c>
       <c r="H34" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="1">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N34" s="1">
-        <v>112</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P34" s="1">
-        <v>149</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R34" s="1">
-        <v>138</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T34" s="1">
-        <v>104</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V34" s="1">
-        <v>128</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34" s="1">
-        <v>155</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3">
         <v>1001</v>
@@ -2571,61 +2738,35 @@
         <v>9</v>
       </c>
       <c r="H35" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="1">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" s="1">
-        <v>106</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R35" s="1">
-        <v>114</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T35" s="1">
-        <v>124</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V35" s="1">
-        <v>111</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="4">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D36" s="3">
         <v>1001</v>
@@ -2640,65 +2781,35 @@
         <v>9</v>
       </c>
       <c r="H36" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="1">
-        <v>141</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P36" s="1">
-        <v>102</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="R36" s="1">
-        <v>156</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T36" s="1">
-        <v>137</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V36" s="1">
-        <v>152</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X36" s="1">
-        <v>139</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
     </row>
     <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B37" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D37" s="3">
         <v>1001</v>
@@ -2716,50 +2827,31 @@
         <v>14</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J37" s="9"/>
-      <c r="K37" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="L37" s="1">
-        <v>118</v>
+        <v>1101</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" s="1">
-        <v>135</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R37" s="1">
-        <v>127</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B38" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D38" s="3">
         <v>1001</v>
@@ -2774,55 +2866,34 @@
         <v>9</v>
       </c>
       <c r="H38" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J38" s="9"/>
-      <c r="K38" s="5"/>
       <c r="L38" s="1">
-        <v>105</v>
+        <v>1142</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P38" s="1">
-        <v>130</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R38" s="1">
-        <v>143</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T38" s="1">
-        <v>120</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B39" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3">
         <v>1001</v>
@@ -2836,22 +2907,24 @@
       <c r="G39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="4">
+        <v>13</v>
+      </c>
       <c r="I39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J39" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="1">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N39" s="4"/>
-      <c r="O39" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -2865,13 +2938,13 @@
     </row>
     <row r="40" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3">
         <v>1001</v>
@@ -2886,25 +2959,23 @@
         <v>9</v>
       </c>
       <c r="H40" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="1">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N40" s="4"/>
-      <c r="O40" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -2918,13 +2989,13 @@
     </row>
     <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B41" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D41" s="3">
         <v>1001</v>
@@ -2939,43 +3010,35 @@
         <v>9</v>
       </c>
       <c r="H41" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="1">
-        <v>112</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>57</v>
+        <v>600</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B42" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D42" s="3">
         <v>1001</v>
@@ -2984,29 +3047,29 @@
         <v>9</v>
       </c>
       <c r="F42" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="1">
-        <v>149</v>
+        <v>1108</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="N42" s="4"/>
-      <c r="O42" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -3020,13 +3083,13 @@
     </row>
     <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B43" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D43" s="3">
         <v>1001</v>
@@ -3035,29 +3098,29 @@
         <v>9</v>
       </c>
       <c r="F43" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J43" s="9"/>
+      <c r="J43" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="1">
-        <v>141</v>
+        <v>1154</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="N43" s="4"/>
-      <c r="O43" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -3071,13 +3134,13 @@
     </row>
     <row r="44" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B44" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D44" s="3">
         <v>1001</v>
@@ -3086,29 +3149,29 @@
         <v>9</v>
       </c>
       <c r="F44" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="1">
-        <v>140</v>
+        <v>1134</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -3122,13 +3185,13 @@
     </row>
     <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D45" s="3">
         <v>1001</v>
@@ -3143,23 +3206,27 @@
         <v>9</v>
       </c>
       <c r="H45" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K45" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="L45" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="N45" s="1">
+        <v>126</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -3173,13 +3240,13 @@
     </row>
     <row r="46" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A46" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D46" s="3">
         <v>1001</v>
@@ -3194,23 +3261,27 @@
         <v>9</v>
       </c>
       <c r="H46" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="L46" s="1">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="N46" s="1">
+        <v>104</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -3224,13 +3295,13 @@
     </row>
     <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A47" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D47" s="3">
         <v>1001</v>
@@ -3245,23 +3316,27 @@
         <v>9</v>
       </c>
       <c r="H47" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K47" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="L47" s="1">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="N47" s="1">
+        <v>138</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
@@ -3275,13 +3350,13 @@
     </row>
     <row r="48" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B48" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D48" s="3">
         <v>1001</v>
@@ -3296,23 +3371,27 @@
         <v>9</v>
       </c>
       <c r="H48" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K48" s="4"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="L48" s="1">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="N48" s="1">
+        <v>132</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -3326,13 +3405,13 @@
     </row>
     <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B49" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D49" s="3">
         <v>1001</v>
@@ -3347,23 +3426,27 @@
         <v>9</v>
       </c>
       <c r="H49" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K49" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="L49" s="1">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="N49" s="1">
+        <v>110</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -3377,13 +3460,13 @@
     </row>
     <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B50" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D50" s="3">
         <v>1001</v>
@@ -3398,23 +3481,27 @@
         <v>9</v>
       </c>
       <c r="H50" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K50" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="L50" s="1">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="N50" s="1">
+        <v>121</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -3428,13 +3515,13 @@
     </row>
     <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B51" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D51" s="3">
         <v>1001</v>
@@ -3449,29 +3536,45 @@
         <v>9</v>
       </c>
       <c r="H51" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K51" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="24" t="s">
+        <v>138</v>
+      </c>
       <c r="L51" s="1">
-        <v>147</v>
+        <v>601</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="N51" s="1">
+        <v>160</v>
+      </c>
+      <c r="O51" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="P51" s="1">
+        <v>161</v>
+      </c>
+      <c r="Q51" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="R51" s="1">
+        <v>162</v>
+      </c>
+      <c r="S51" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T51" s="1">
+        <v>163</v>
+      </c>
+      <c r="U51" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
@@ -3479,13 +3582,13 @@
     </row>
     <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B52" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D52" s="3">
         <v>1001</v>
@@ -3500,27 +3603,39 @@
         <v>9</v>
       </c>
       <c r="H52" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K52" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L52" s="1">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="N52" s="1">
+        <v>115</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" s="1">
+        <v>135</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R52" s="1">
+        <v>127</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -3530,13 +3645,13 @@
     </row>
     <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B53" s="4">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
       </c>
       <c r="D53" s="3">
         <v>1001</v>
@@ -3551,69 +3666,51 @@
         <v>9</v>
       </c>
       <c r="H53" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>108</v>
+        <v>72</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" t="s">
+        <v>132</v>
       </c>
       <c r="L53" s="1">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N53" s="1">
-        <v>150</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>33</v>
+        <v>147</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="P53" s="1">
-        <v>106</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R53" s="1">
-        <v>114</v>
-      </c>
-      <c r="S53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T53" s="1">
-        <v>124</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V53" s="1">
-        <v>111</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X53" s="1">
-        <v>148</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="4">
-        <v>9</v>
-      </c>
-      <c r="B54" s="4">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>143</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+    </row>
+    <row r="54" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="5">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D54" s="3">
         <v>1001</v>
@@ -3628,53 +3725,46 @@
         <v>9</v>
       </c>
       <c r="H54" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>113</v>
+        <v>72</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="L54" s="1">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="N54" s="1">
-        <v>124</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P54" s="1">
-        <v>148</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>10</v>
+        <v>158</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P54" s="22">
+        <v>120</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-    </row>
-    <row r="55" spans="1:25" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="5">
-        <v>1</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>76</v>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="4">
+        <v>5</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
       </c>
       <c r="D55" s="3">
         <v>1001</v>
@@ -3689,35 +3779,63 @@
         <v>9</v>
       </c>
       <c r="H55" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="11"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="L55" s="1">
-        <v>157</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="5">
-        <v>7</v>
-      </c>
-      <c r="B56" s="5">
-        <v>7</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>85</v>
+        <v>125</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="1">
+        <v>150</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="1">
+        <v>106</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" s="1">
+        <v>114</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T55" s="1">
+        <v>124</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V55" s="1">
+        <v>111</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+    </row>
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="4">
+        <v>5</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
       </c>
       <c r="D56" s="3">
         <v>1001</v>
@@ -3732,45 +3850,67 @@
         <v>9</v>
       </c>
       <c r="H56" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="11" t="s">
-        <v>124</v>
+        <v>70</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="L56" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N56" s="1">
-        <v>158</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P56" s="23">
-        <v>120</v>
-      </c>
-      <c r="Q56" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="1:25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P56" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R56" s="1">
+        <v>138</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="1">
+        <v>104</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V56" s="1">
+        <v>128</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56" s="1">
+        <v>155</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A57" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57" s="4">
-        <v>9</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
       </c>
       <c r="D57" s="3">
         <v>1001</v>
@@ -3785,103 +3925,256 @@
         <v>9</v>
       </c>
       <c r="H57" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L57" s="1">
+        <v>141</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" s="1">
+        <v>110</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" s="1">
+        <v>102</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R57" s="1">
+        <v>156</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T57" s="1">
+        <v>137</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V57" s="1">
+        <v>152</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X57" s="1">
+        <v>139</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="4">
+        <v>9</v>
+      </c>
+      <c r="B58" s="4">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="3">
+        <v>101</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="4">
+        <v>12</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L57" s="1">
-        <v>100</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N57" s="1">
-        <v>103</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P57" s="1">
-        <v>116</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
+      <c r="J58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L58" s="1">
+        <v>114</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N58" s="1">
+        <v>124</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" s="1">
+        <v>148</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="8"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" spans="1:25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="4">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="3">
+        <v>101</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="4">
+        <v>13</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
+      <c r="K59" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="1">
+        <v>100</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" s="1">
+        <v>103</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59" s="1">
+        <v>116</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
+    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="4">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3">
+        <v>101</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="4">
+        <v>12</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L60" s="1">
+        <v>125</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="1">
+        <v>150</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" s="1">
+        <v>106</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R60" s="1">
+        <v>114</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T60" s="1">
+        <v>124</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V60" s="1">
+        <v>111</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X60" s="1">
+        <v>148</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="4"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -3898,10 +4191,10 @@
     <row r="62" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="18"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="4"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -3918,10 +4211,10 @@
     <row r="63" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="4"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -3938,10 +4231,10 @@
     <row r="64" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="18"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="4"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -3958,10 +4251,10 @@
     <row r="65" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="4"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -3978,10 +4271,10 @@
     <row r="66" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="18"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
       <c r="H66" s="4"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -3998,10 +4291,10 @@
     <row r="67" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="18"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="4"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -4019,10 +4312,10 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="16"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="5"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
@@ -4040,10 +4333,10 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="16"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="5"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -4060,10 +4353,10 @@
     <row r="70" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="18"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="4"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -4080,10 +4373,10 @@
     <row r="71" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="18"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="4"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -4100,10 +4393,10 @@
     <row r="72" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="18"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="4"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -4120,10 +4413,10 @@
     <row r="73" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="18"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="4"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -4140,10 +4433,10 @@
     <row r="74" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="18"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="4"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -4160,10 +4453,10 @@
     <row r="75" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="18"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="4"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -4180,10 +4473,10 @@
     <row r="76" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="18"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="4"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -4200,10 +4493,10 @@
     <row r="77" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="18"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="4"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -4220,10 +4513,10 @@
     <row r="78" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="18"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="4"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
@@ -4240,10 +4533,10 @@
     <row r="79" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="18"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="4"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
@@ -4260,10 +4553,10 @@
     <row r="80" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="18"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="4"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -4280,10 +4573,10 @@
     <row r="81" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="18"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="4"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -4300,10 +4593,10 @@
     <row r="82" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="18"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="4"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
@@ -4320,10 +4613,10 @@
     <row r="83" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="18"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="4"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -4340,10 +4633,10 @@
     <row r="84" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="18"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="4"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -4361,10 +4654,10 @@
     <row r="85" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="18"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
       <c r="H85" s="4"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
@@ -4381,10 +4674,10 @@
     <row r="86" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="18"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="4"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -4401,10 +4694,10 @@
     <row r="87" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="18"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="4"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -4421,10 +4714,10 @@
     <row r="88" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="19"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="18"/>
       <c r="H88" s="4"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
@@ -4441,10 +4734,10 @@
     <row r="89" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="18"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="4"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -4461,10 +4754,10 @@
     <row r="90" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="18"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="4"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -4481,10 +4774,10 @@
     <row r="91" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="18"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="17"/>
       <c r="H91" s="4"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -4501,10 +4794,10 @@
     <row r="92" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="18"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="4"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -4521,10 +4814,10 @@
     <row r="93" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="18"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="4"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -4541,10 +4834,10 @@
     <row r="94" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="18"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
       <c r="H94" s="4"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -4561,10 +4854,10 @@
     <row r="95" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="18"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="17"/>
       <c r="H95" s="4"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -4581,10 +4874,10 @@
     <row r="96" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="18"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="17"/>
       <c r="H96" s="4"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -4601,10 +4894,10 @@
     <row r="97" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="18"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="17"/>
       <c r="H97" s="4"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
@@ -4621,10 +4914,10 @@
     <row r="98" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="18"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="17"/>
       <c r="H98" s="4"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
@@ -4641,10 +4934,10 @@
     <row r="99" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="18"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="17"/>
       <c r="H99" s="4"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -4661,10 +4954,10 @@
     <row r="100" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="18"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="4"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -4681,10 +4974,10 @@
     <row r="101" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="18"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="17"/>
       <c r="H101" s="4"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -4702,10 +4995,10 @@
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
       <c r="H102" s="4"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
@@ -4724,10 +5017,10 @@
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="4"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
@@ -4748,10 +5041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FCBB74-D74A-4968-ADFC-E2201B965C19}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4765,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C1" s="4">
         <v>1</v>
@@ -4773,8 +5066,8 @@
       <c r="D1" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>88</v>
+      <c r="E1" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -4785,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4793,8 +5086,8 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>88</v>
+      <c r="E2" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4805,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4813,8 +5106,8 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>89</v>
+      <c r="E3" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4825,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -4833,8 +5126,8 @@
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>89</v>
+      <c r="E4" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4845,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -4853,8 +5146,8 @@
       <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>90</v>
+      <c r="E5" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4865,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -4873,8 +5166,8 @@
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>90</v>
+      <c r="E6" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4885,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -4893,8 +5186,8 @@
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>90</v>
+      <c r="E7" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -4905,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -4913,8 +5206,8 @@
       <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>91</v>
+      <c r="E8" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4925,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -4933,8 +5226,8 @@
       <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>91</v>
+      <c r="E9" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4945,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
@@ -4953,8 +5246,8 @@
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>91</v>
+      <c r="E10" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4965,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -4973,8 +5266,8 @@
       <c r="D11" s="4">
         <v>11</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>95</v>
+      <c r="E11" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4985,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
@@ -4993,8 +5286,8 @@
       <c r="D12" s="4">
         <v>11</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>95</v>
+      <c r="E12" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5005,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C13" s="4">
         <v>21</v>
@@ -5013,8 +5306,8 @@
       <c r="D13" s="4">
         <v>21</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>96</v>
+      <c r="E13" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5025,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4">
         <v>21</v>
@@ -5033,19 +5326,19 @@
       <c r="D14" s="4">
         <v>21</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>96</v>
+      <c r="E14" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>1081</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>86</v>
+      <c r="B15" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="C15" s="4">
         <v>8</v>
@@ -5053,39 +5346,39 @@
       <c r="D15" s="4">
         <v>8</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>86</v>
+      <c r="E15" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="24">
-        <v>1081</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>86</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="23">
+        <v>40</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="C16" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4">
-        <v>8</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>40</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>128</v>
+      <c r="B17" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="C17" s="4">
         <v>7</v>
@@ -5093,39 +5386,39 @@
       <c r="D17" s="4">
         <v>7</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>85</v>
+      <c r="E17" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="24">
-        <v>40</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>128</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="C18" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>7</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>16</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>127</v>
+      <c r="B19" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
@@ -5133,39 +5426,39 @@
       <c r="D19" s="4">
         <v>5</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>92</v>
+      <c r="E19" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="24">
-        <v>16</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>127</v>
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="C20" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>18</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>129</v>
+      <c r="B21" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -5173,50 +5466,30 @@
       <c r="D21" s="4">
         <v>6</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>93</v>
+      <c r="E21" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="24">
-        <v>18</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>129</v>
+      <c r="A22" s="23">
+        <v>1089</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C22" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4">
-        <v>6</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>93</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="24">
-        <v>1089</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4">
-        <v>9</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23">
         <v>1</v>
       </c>
     </row>
@@ -5230,14 +5503,14 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.46484375" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.3984375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="53.3984375" style="20" customWidth="1"/>
     <col min="5" max="8" width="8.86328125" style="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
@@ -5252,8 +5525,8 @@
       <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>88</v>
+      <c r="C1" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D1">
         <v>1068</v>
@@ -5278,8 +5551,8 @@
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>89</v>
+      <c r="C2" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D2">
         <v>1069</v>
@@ -5304,8 +5577,8 @@
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>90</v>
+      <c r="C3" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="D3">
         <v>1075</v>
@@ -5330,8 +5603,8 @@
       <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>91</v>
+      <c r="C4" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="D4">
         <v>1070</v>
@@ -5356,8 +5629,8 @@
       <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>92</v>
+      <c r="C5" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="D5">
         <v>1071</v>
@@ -5382,8 +5655,8 @@
       <c r="B6" s="4">
         <v>6</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>93</v>
+      <c r="C6" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="D6">
         <v>1072</v>
@@ -5408,8 +5681,8 @@
       <c r="B7" s="4">
         <v>7</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>85</v>
+      <c r="C7" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="1">
         <v>1066</v>
@@ -5434,8 +5707,8 @@
       <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>86</v>
+      <c r="C8" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="D8" s="1">
         <v>1073</v>
@@ -5460,8 +5733,8 @@
       <c r="B9" s="4">
         <v>9</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>94</v>
+      <c r="C9" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="D9">
         <v>56</v>
@@ -5486,8 +5759,8 @@
       <c r="B10" s="4">
         <v>11</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>95</v>
+      <c r="C10" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="D10">
         <v>1067</v>
@@ -5512,36 +5785,36 @@
       <c r="B11" s="4">
         <v>21</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>96</v>
+      <c r="C11" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="D11">
         <v>1068</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C12" s="22"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C13" s="22"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C14" s="22"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C15" s="22"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C16" s="22"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C18" s="22"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19"/>
@@ -5733,10 +6006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E50BA4F-C9F6-4C5B-8947-232726082284}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5751,6 +6024,14 @@
       </c>
       <c r="B1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5777,7 +6058,7 @@
         <v>1000</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -5788,7 +6069,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -5799,7 +6080,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -5810,7 +6091,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -5821,7 +6102,7 @@
         <v>1004</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -5993,10 +6274,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5152B9-B788-4BDE-A1B2-C618945E4F4F}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6005,524 +6286,719 @@
     <col min="2" max="2" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
         <v>100</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
         <v>102</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>160</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>106</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>108</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>109</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
+        <v>158</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>110</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
+        <v>111</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
+        <v>112</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
+        <v>114</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>161</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>115</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
+        <v>116</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
+        <v>117</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>118</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>119</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A25" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A26" s="1">
+        <v>121</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A27" s="1">
+        <v>122</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A28" s="1">
+        <v>123</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A29" s="1">
+        <v>124</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A30" s="1">
+        <v>125</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A31" s="1">
+        <v>126</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A32" s="1">
+        <v>165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A33" s="1">
+        <v>127</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A34" s="1">
+        <v>128</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A35" s="1">
+        <v>130</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A36" s="1">
+        <v>131</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A37" s="1">
+        <v>132</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A38" s="1">
+        <v>134</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A39" s="1">
+        <v>1134</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A40" s="1">
+        <v>135</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="1">
-        <v>104</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="1">
-        <v>105</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
-        <v>106</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
-        <v>107</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
-        <v>108</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
-        <v>109</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
-        <v>110</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" s="1">
-        <v>111</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="1">
-        <v>112</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="1">
-        <v>114</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="1">
-        <v>115</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="1">
-        <v>116</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="1">
-        <v>117</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" s="1">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A41" s="1">
+        <v>136</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A42" s="1">
+        <v>137</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A43" s="1">
+        <v>162</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A44" s="1">
+        <v>138</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A45" s="1">
+        <v>139</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A46" s="1">
+        <v>140</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A47" s="1">
+        <v>141</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A48" s="1">
+        <v>142</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A49" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A50" s="1">
+        <v>143</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A51" s="1">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A52" s="1">
+        <v>144</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A53" s="1">
+        <v>145</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A54" s="1">
+        <v>163</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A55" s="1">
+        <v>146</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A56" s="1">
+        <v>147</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A57" s="1">
+        <v>148</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A58" s="1">
+        <v>149</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A59" s="1">
+        <v>150</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A60" s="1">
+        <v>151</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A61" s="1">
+        <v>152</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A62" s="1">
+        <v>153</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A63" s="1">
+        <v>154</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A64" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A65" s="1">
+        <v>155</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A66" s="1">
+        <v>157</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="1">
-        <v>119</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" s="1">
-        <v>120</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" s="1">
-        <v>121</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A22" s="1">
-        <v>122</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A23" s="1">
-        <v>123</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A24" s="1">
-        <v>124</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A25" s="1">
-        <v>125</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A26" s="1">
-        <v>126</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A27" s="1">
-        <v>127</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A28" s="1">
-        <v>128</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A29" s="1">
-        <v>130</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="C66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A67" s="1">
+        <v>156</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A30" s="1">
-        <v>131</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A31" s="1">
-        <v>132</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A32" s="1">
-        <v>134</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A33" s="1">
-        <v>135</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A34" s="1">
-        <v>136</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A35" s="1">
-        <v>137</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A36" s="1">
-        <v>138</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A37" s="1">
-        <v>139</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A38" s="1">
-        <v>140</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="1">
-        <v>141</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="1">
-        <v>142</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="1">
-        <v>143</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="1">
-        <v>144</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="1">
-        <v>145</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A44" s="1">
-        <v>146</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="1">
-        <v>147</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="1">
-        <v>148</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="1">
-        <v>149</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="1">
-        <v>150</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A49" s="1">
-        <v>151</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A50" s="1">
-        <v>152</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A51" s="1">
-        <v>153</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A52" s="1">
-        <v>154</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A53" s="1">
-        <v>155</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A54" s="1">
-        <v>156</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A55" s="1">
-        <v>157</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A56" s="1">
-        <v>158</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B66"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B68"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A68" s="1">
+        <v>600</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A69" s="1">
+        <v>601</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B80"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.45">
@@ -6550,8 +7026,8 @@
       <c r="B88"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B83">
-    <sortCondition ref="B36:B83"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B88">
+    <sortCondition ref="B1:B88"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mallar/import/Trähäst feb 2024/extraktion.xlsx
+++ b/mallar/import/Trähäst feb 2024/extraktion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\Trähäst feb 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB546F-EB08-4361-895A-1DA95A1F7C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A001C6-8AFC-4FDF-9EF0-529E51040287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="803" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="81480" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="803" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -791,6 +791,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1106,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
-  <dimension ref="A1:Y103"/>
+  <dimension ref="A1:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1120,27 +1131,28 @@
     <col min="5" max="5" width="11.6640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="13" customWidth="1"/>
     <col min="7" max="7" width="8.265625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="21.9296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.46484375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.53125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.86328125" style="1"/>
-    <col min="15" max="15" width="22.19921875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.265625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="21.9296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.46484375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.53125" style="1" customWidth="1"/>
     <col min="16" max="16" width="8.86328125" style="1"/>
-    <col min="17" max="17" width="14.53125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.19921875" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.86328125" style="1"/>
-    <col min="19" max="19" width="17.53125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.19921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.86328125" style="1"/>
-    <col min="23" max="23" width="14.1328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.53125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.86328125" style="1"/>
+    <col min="21" max="21" width="17.53125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.19921875" style="1" customWidth="1"/>
     <col min="24" max="24" width="8.86328125" style="1"/>
-    <col min="25" max="25" width="17.33203125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.86328125" style="1"/>
+    <col min="25" max="25" width="14.1328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.86328125" style="1"/>
+    <col min="27" max="27" width="17.33203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D1" s="13"/>
       <c r="E1" s="13" t="s">
         <v>13</v>
@@ -1149,38 +1161,38 @@
       <c r="G1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1202,29 +1214,31 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="4">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>138</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1246,30 +1260,32 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="4">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="1">
+      <c r="M3" s="9"/>
+      <c r="N3" s="1">
         <v>112</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1291,30 +1307,32 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="4">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="1">
+      <c r="M4" s="9"/>
+      <c r="N4" s="1">
         <v>128</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1336,30 +1354,32 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="4">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="1">
+      <c r="M5" s="9"/>
+      <c r="N5" s="1">
         <v>155</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1381,30 +1401,32 @@
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="4">
         <v>11</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="1">
+      <c r="M6" s="9"/>
+      <c r="N6" s="1">
         <v>123</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1426,24 +1448,24 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="4">
         <v>11</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1">
+      <c r="M7" s="4"/>
+      <c r="N7" s="1">
         <v>149</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1454,8 +1476,10 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -1477,22 +1501,22 @@
       <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="4">
         <v>11</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1">
+      <c r="L8" s="9"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="1">
         <v>104</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1503,8 +1527,10 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -1526,22 +1552,22 @@
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="4">
         <v>11</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1">
+      <c r="L9" s="9"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="1">
         <v>141</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1552,8 +1578,10 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -1575,28 +1603,30 @@
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="4">
         <v>11</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="1">
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="1">
         <v>165</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>144</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1618,29 +1648,31 @@
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="4">
         <v>11</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>136</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -1662,22 +1694,22 @@
       <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="4">
         <v>11</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1">
+      <c r="L12" s="9"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="1">
         <v>146</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1688,8 +1720,10 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -1711,24 +1745,24 @@
       <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="4">
         <v>11</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="1">
+      <c r="M13" s="4"/>
+      <c r="N13" s="1">
         <v>153</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1739,8 +1773,10 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -1762,24 +1798,24 @@
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="4">
         <v>11</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1">
+      <c r="M14" s="4"/>
+      <c r="N14" s="1">
         <v>140</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -1790,8 +1826,10 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1813,22 +1851,22 @@
       <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="4">
         <v>11</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="1">
+      <c r="L15" s="9"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="1">
         <v>121</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1839,8 +1877,10 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -1862,22 +1902,22 @@
       <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="4">
         <v>11</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="1">
+      <c r="L16" s="9"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="1">
         <v>131</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1888,8 +1928,10 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:27" customFormat="1" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -1911,24 +1953,24 @@
       <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="4">
         <v>11</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="1">
+      <c r="M17" s="4"/>
+      <c r="N17" s="1">
         <v>109</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1939,8 +1981,10 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -1962,22 +2006,22 @@
       <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="4">
         <v>11</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="1">
+      <c r="L18" s="9"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="1">
         <v>145</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1988,8 +2032,10 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -2011,22 +2057,22 @@
       <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="4">
         <v>11</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="1">
+      <c r="L19" s="9"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="1">
         <v>151</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2037,8 +2083,10 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -2060,22 +2108,22 @@
       <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="4">
         <v>13</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="1">
+      <c r="L20" s="9"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="1">
         <v>117</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2086,8 +2134,10 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" s="6" customFormat="1" ht="26.55" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" s="6" customFormat="1" ht="26.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5">
         <v>21</v>
       </c>
@@ -2109,29 +2159,31 @@
       <c r="G21" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="4">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>101</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:25" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2153,29 +2205,31 @@
       <c r="G22" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="4">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>142</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-    </row>
-    <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4">
         <v>11</v>
       </c>
@@ -2197,24 +2251,22 @@
       <c r="G23" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" s="4">
         <v>14</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="1">
+      <c r="M23" s="4"/>
+      <c r="N23" s="1">
         <v>108</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2225,8 +2277,10 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4">
         <v>11</v>
       </c>
@@ -2248,24 +2302,22 @@
       <c r="G24" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="4">
+      <c r="J24" s="4">
         <v>14</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="L24" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="1">
+      <c r="M24" s="4"/>
+      <c r="N24" s="1">
         <v>154</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2276,8 +2328,10 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4">
         <v>11</v>
       </c>
@@ -2299,24 +2353,22 @@
       <c r="G25" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="4">
+      <c r="J25" s="4">
         <v>14</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="1">
+      <c r="M25" s="4"/>
+      <c r="N25" s="1">
         <v>134</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -2327,8 +2379,10 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" s="6" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="1:27" s="6" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -2350,28 +2404,30 @@
       <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="4">
         <v>12</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="1">
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="1">
         <v>150</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="O26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-    </row>
-    <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -2393,28 +2449,30 @@
       <c r="G27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="4">
         <v>12</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="1">
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="1">
         <v>125</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:27" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -2436,28 +2494,30 @@
       <c r="G28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="4">
         <v>12</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="1">
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="1">
         <v>106</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="O28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -2479,28 +2539,30 @@
       <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="4">
         <v>12</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="1">
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="1">
         <v>111</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -2522,28 +2584,30 @@
       <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="4">
         <v>13</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="1">
+      <c r="L30" s="8"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="1">
         <v>100</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -2565,28 +2629,30 @@
       <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="4">
         <v>13</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="1">
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="1">
         <v>103</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -2608,28 +2674,30 @@
       <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="4">
         <v>13</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="1">
+      <c r="L32" s="8"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="1">
         <v>116</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -2651,28 +2719,30 @@
       <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="4">
         <v>13</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="1">
+      <c r="L33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="1">
         <v>164</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>143</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -2694,28 +2764,30 @@
       <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="4">
         <v>13</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="1">
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="1">
         <v>144</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -2737,28 +2809,30 @@
       <c r="G35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="4">
         <v>13</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="1">
+      <c r="L35" s="8"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="1">
         <v>119</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:25" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:27" s="6" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -2780,28 +2854,30 @@
       <c r="G36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="4">
         <v>13</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="1">
+      <c r="L36" s="10"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="1">
         <v>157</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="O36" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -2823,27 +2899,29 @@
       <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="4">
         <v>14</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="L37" s="1">
+      <c r="L37" s="9"/>
+      <c r="N37" s="1">
         <v>1101</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -2865,27 +2943,29 @@
       <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="4">
         <v>14</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="L38" s="1">
+      <c r="L38" s="9"/>
+      <c r="N38" s="1">
         <v>1142</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4">
         <v>11</v>
       </c>
@@ -2907,24 +2987,24 @@
       <c r="G39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="4">
         <v>13</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="1">
+      <c r="M39" s="4"/>
+      <c r="N39" s="1">
         <v>147</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -2935,8 +3015,10 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+    </row>
+    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -2958,24 +3040,24 @@
       <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="4">
         <v>13</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="L40" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="1">
+      <c r="M40" s="4"/>
+      <c r="N40" s="1">
         <v>143</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -2986,8 +3068,10 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4">
         <v>11</v>
       </c>
@@ -3009,28 +3093,30 @@
       <c r="G41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="4">
         <v>13</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="1">
+      <c r="L41" s="8"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="1">
         <v>600</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="O41" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4">
         <v>11</v>
       </c>
@@ -3052,24 +3138,24 @@
       <c r="G42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="4">
         <v>14</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="L42" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="1">
+      <c r="M42" s="4"/>
+      <c r="N42" s="1">
         <v>1108</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -3080,8 +3166,10 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-    </row>
-    <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+    </row>
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4">
         <v>11</v>
       </c>
@@ -3103,24 +3191,24 @@
       <c r="G43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="4">
         <v>14</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="L43" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="1">
+      <c r="M43" s="4"/>
+      <c r="N43" s="1">
         <v>1154</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -3131,8 +3219,10 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-    </row>
-    <row r="44" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4">
         <v>11</v>
       </c>
@@ -3154,24 +3244,24 @@
       <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="4">
         <v>14</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="L44" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="1">
+      <c r="M44" s="4"/>
+      <c r="N44" s="1">
         <v>1134</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="O44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -3182,8 +3272,10 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-    </row>
-    <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+    </row>
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4">
         <v>8</v>
       </c>
@@ -3205,30 +3297,30 @@
       <c r="G45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="4">
         <v>12</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="9"/>
+      <c r="M45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="L45" s="1">
+      <c r="N45" s="1">
         <v>107</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N45" s="1">
+      <c r="P45" s="1">
         <v>126</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -3237,8 +3329,10 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-    </row>
-    <row r="46" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+    </row>
+    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A46" s="4">
         <v>8</v>
       </c>
@@ -3260,30 +3354,30 @@
       <c r="G46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="4">
         <v>11</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="9"/>
+      <c r="M46" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L46" s="1">
+      <c r="N46" s="1">
         <v>112</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="O46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="1">
+      <c r="P46" s="1">
         <v>104</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="Q46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
@@ -3292,8 +3386,10 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
-    </row>
-    <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+    </row>
+    <row r="47" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -3315,30 +3411,30 @@
       <c r="G47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="4">
         <v>11</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="9"/>
+      <c r="M47" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L47" s="1">
+      <c r="N47" s="1">
         <v>149</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="1">
+      <c r="P47" s="1">
         <v>138</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
@@ -3347,8 +3443,10 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-    </row>
-    <row r="48" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+    </row>
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4">
         <v>8</v>
       </c>
@@ -3370,30 +3468,30 @@
       <c r="G48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="4">
         <v>13</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="9"/>
+      <c r="M48" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L48" s="1">
+      <c r="N48" s="1">
         <v>117</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="O48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N48" s="1">
+      <c r="P48" s="1">
         <v>132</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="Q48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
@@ -3402,8 +3500,10 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-    </row>
-    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+    </row>
+    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4">
         <v>8</v>
       </c>
@@ -3425,30 +3525,30 @@
       <c r="G49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="4">
         <v>11</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="9"/>
+      <c r="M49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L49" s="1">
+      <c r="N49" s="1">
         <v>141</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N49" s="1">
+      <c r="P49" s="1">
         <v>110</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="Q49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
@@ -3457,8 +3557,10 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
-    </row>
-    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+    </row>
+    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4">
         <v>8</v>
       </c>
@@ -3480,30 +3582,30 @@
       <c r="G50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="4">
         <v>11</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="9"/>
+      <c r="M50" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L50" s="1">
+      <c r="N50" s="1">
         <v>140</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N50" s="1">
+      <c r="P50" s="1">
         <v>121</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="Q50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
@@ -3512,8 +3614,10 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
-    </row>
-    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+    </row>
+    <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4">
         <v>7</v>
       </c>
@@ -3535,52 +3639,54 @@
       <c r="G51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="4">
         <v>11</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="24" t="s">
+      <c r="L51" s="9"/>
+      <c r="M51" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="L51" s="1">
+      <c r="N51" s="1">
         <v>601</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="N51" s="1">
+      <c r="P51" s="1">
         <v>160</v>
       </c>
-      <c r="O51" s="25" t="s">
+      <c r="Q51" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="P51" s="1">
+      <c r="R51" s="1">
         <v>161</v>
       </c>
-      <c r="Q51" s="25" t="s">
+      <c r="S51" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="R51" s="1">
+      <c r="T51" s="1">
         <v>162</v>
       </c>
-      <c r="S51" s="25" t="s">
+      <c r="U51" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="T51" s="1">
+      <c r="V51" s="1">
         <v>163</v>
       </c>
-      <c r="U51" s="26" t="s">
+      <c r="W51" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-    </row>
-    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+    </row>
+    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4">
         <v>7</v>
       </c>
@@ -3602,48 +3708,50 @@
       <c r="G52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="4">
         <v>14</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="4" t="s">
+      <c r="L52" s="9"/>
+      <c r="M52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="1">
+      <c r="N52" s="1">
         <v>118</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="O52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N52" s="1">
+      <c r="P52" s="1">
         <v>115</v>
       </c>
-      <c r="O52" s="4" t="s">
+      <c r="Q52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P52" s="1">
+      <c r="R52" s="1">
         <v>135</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="S52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R52" s="1">
+      <c r="T52" s="1">
         <v>127</v>
       </c>
-      <c r="S52" s="4" t="s">
+      <c r="U52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
-    </row>
-    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+    </row>
+    <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4">
         <v>7</v>
       </c>
@@ -3665,44 +3773,46 @@
       <c r="G53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="4">
         <v>13</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" t="s">
+      <c r="L53" s="9"/>
+      <c r="M53" t="s">
         <v>132</v>
       </c>
-      <c r="L53" s="1">
+      <c r="N53" s="1">
         <v>105</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="O53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N53" s="1">
+      <c r="P53" s="1">
         <v>147</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="Q53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P53" s="1">
+      <c r="R53" s="1">
         <v>143</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="S53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R53" s="1"/>
-      <c r="S53" s="4"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
+      <c r="U53" s="4"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
       <c r="Y53" s="4"/>
-    </row>
-    <row r="54" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+    </row>
+    <row r="54" spans="1:27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="5">
         <v>7</v>
       </c>
@@ -3724,39 +3834,41 @@
       <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="4">
         <v>13</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="11" t="s">
+      <c r="L54" s="8"/>
+      <c r="M54" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L54" s="1">
+      <c r="N54" s="1">
         <v>130</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="O54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="1">
+      <c r="P54" s="1">
         <v>158</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="Q54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="P54" s="22">
+      <c r="R54" s="22">
         <v>120</v>
       </c>
-      <c r="Q54" s="5" t="s">
+      <c r="S54" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R54" s="4"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T54" s="4"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4">
         <v>5</v>
       </c>
@@ -3778,56 +3890,58 @@
       <c r="G55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="4">
         <v>12</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="9"/>
+      <c r="M55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L55" s="1">
+      <c r="N55" s="1">
         <v>125</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="1">
+      <c r="P55" s="1">
         <v>150</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="Q55" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P55" s="1">
+      <c r="R55" s="1">
         <v>106</v>
       </c>
-      <c r="Q55" s="5" t="s">
+      <c r="S55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R55" s="1">
+      <c r="T55" s="1">
         <v>114</v>
       </c>
-      <c r="S55" s="4" t="s">
+      <c r="U55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T55" s="1">
+      <c r="V55" s="1">
         <v>124</v>
       </c>
-      <c r="U55" s="4" t="s">
+      <c r="W55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V55" s="1">
+      <c r="X55" s="1">
         <v>111</v>
       </c>
-      <c r="W55" s="4" t="s">
+      <c r="Y55" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-    </row>
-    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+    </row>
+    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A56" s="4">
         <v>5</v>
       </c>
@@ -3849,60 +3963,62 @@
       <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="4">
         <v>11</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="9"/>
+      <c r="M56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L56" s="1">
+      <c r="N56" s="1">
         <v>132</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N56" s="1">
+      <c r="P56" s="1">
         <v>112</v>
       </c>
-      <c r="O56" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P56" s="1">
+      <c r="R56" s="1">
         <v>149</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="S56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R56" s="1">
+      <c r="T56" s="1">
         <v>138</v>
       </c>
-      <c r="S56" s="4" t="s">
+      <c r="U56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T56" s="1">
+      <c r="V56" s="1">
         <v>104</v>
       </c>
-      <c r="U56" s="4" t="s">
+      <c r="W56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V56" s="1">
+      <c r="X56" s="1">
         <v>128</v>
       </c>
-      <c r="W56" s="4" t="s">
+      <c r="Y56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X56" s="1">
+      <c r="Z56" s="1">
         <v>155</v>
       </c>
-      <c r="Y56" s="4" t="s">
+      <c r="AA56" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A57" s="4">
         <v>6</v>
       </c>
@@ -3924,60 +4040,62 @@
       <c r="G57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="4">
         <v>11</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="4" t="s">
+      <c r="L57" s="9"/>
+      <c r="M57" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L57" s="1">
+      <c r="N57" s="1">
         <v>141</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="O57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N57" s="1">
+      <c r="P57" s="1">
         <v>110</v>
       </c>
-      <c r="O57" s="4" t="s">
+      <c r="Q57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P57" s="1">
+      <c r="R57" s="1">
         <v>102</v>
       </c>
-      <c r="Q57" s="4" t="s">
+      <c r="S57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="R57" s="1">
+      <c r="T57" s="1">
         <v>156</v>
       </c>
-      <c r="S57" s="4" t="s">
+      <c r="U57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="T57" s="1">
+      <c r="V57" s="1">
         <v>137</v>
       </c>
-      <c r="U57" s="4" t="s">
+      <c r="W57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V57" s="1">
+      <c r="X57" s="1">
         <v>152</v>
       </c>
-      <c r="W57" s="4" t="s">
+      <c r="Y57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X57" s="1">
+      <c r="Z57" s="1">
         <v>139</v>
       </c>
-      <c r="Y57" s="4" t="s">
+      <c r="AA57" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4">
         <v>9</v>
       </c>
@@ -3999,46 +4117,48 @@
       <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="4">
         <v>12</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="L58" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="M58" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L58" s="1">
+      <c r="N58" s="1">
         <v>114</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="O58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N58" s="1">
+      <c r="P58" s="1">
         <v>124</v>
       </c>
-      <c r="O58" s="4" t="s">
+      <c r="Q58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P58" s="1">
+      <c r="R58" s="1">
         <v>148</v>
       </c>
-      <c r="Q58" s="4" t="s">
+      <c r="S58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
-    </row>
-    <row r="59" spans="1:25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+    </row>
+    <row r="59" spans="1:27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="4">
         <v>9</v>
       </c>
@@ -4060,38 +4180,40 @@
       <c r="G59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="4">
         <v>13</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="11" t="s">
+      <c r="L59" s="8"/>
+      <c r="M59" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L59" s="1">
+      <c r="N59" s="1">
         <v>100</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N59" s="1">
+      <c r="P59" s="1">
         <v>103</v>
       </c>
-      <c r="O59" s="4" t="s">
+      <c r="Q59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P59" s="1">
+      <c r="R59" s="1">
         <v>116</v>
       </c>
-      <c r="Q59" s="4" t="s">
+      <c r="S59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+    </row>
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4">
         <v>9</v>
       </c>
@@ -4113,202 +4235,218 @@
       <c r="G60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="4">
         <v>12</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="L60" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L60" s="1">
+      <c r="N60" s="1">
         <v>125</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N60" s="1">
+      <c r="P60" s="1">
         <v>150</v>
       </c>
-      <c r="O60" s="5" t="s">
+      <c r="Q60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P60" s="1">
+      <c r="R60" s="1">
         <v>106</v>
       </c>
-      <c r="Q60" s="5" t="s">
+      <c r="S60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R60" s="1">
+      <c r="T60" s="1">
         <v>114</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="U60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T60" s="1">
+      <c r="V60" s="1">
         <v>124</v>
       </c>
-      <c r="U60" s="4" t="s">
+      <c r="W60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V60" s="1">
+      <c r="X60" s="1">
         <v>111</v>
       </c>
-      <c r="W60" s="4" t="s">
+      <c r="Y60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X60" s="1">
+      <c r="Z60" s="1">
         <v>148</v>
       </c>
-      <c r="Y60" s="4" t="s">
+      <c r="AA60" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="17"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="9"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+    </row>
+    <row r="62" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="9"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+    </row>
+    <row r="63" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="9"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:25" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64" spans="1:27" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="9"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-    </row>
-    <row r="65" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="9"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="9"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="9"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+    </row>
+    <row r="68" spans="1:21" s="6" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="11"/>
@@ -4316,20 +4454,22 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="11"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="1:21" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="11"/>
@@ -4337,661 +4477,727 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="11"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
-    </row>
-    <row r="70" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="9"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+    </row>
+    <row r="71" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="9"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+    </row>
+    <row r="72" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="9"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="9"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-    </row>
-    <row r="74" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="17"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="9"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+    </row>
+    <row r="75" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="9"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="9"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="9"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="17"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="9"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="9"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80" spans="1:21" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="9"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="9"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="9"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="9"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="9"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="12"/>
-    </row>
-    <row r="85" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="12"/>
+    </row>
+    <row r="85" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="17"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="9"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-    </row>
-    <row r="86" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+    </row>
+    <row r="86" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="9"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
-    </row>
-    <row r="87" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+    </row>
+    <row r="87" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="5"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-    </row>
-    <row r="88" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+    </row>
+    <row r="88" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="18"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="9"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="9"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="9"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
-    </row>
-    <row r="91" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+    </row>
+    <row r="91" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="9"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-    </row>
-    <row r="92" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+    </row>
+    <row r="92" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="9"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-    </row>
-    <row r="93" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+    </row>
+    <row r="93" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="9"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+    </row>
+    <row r="94" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="9"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+    </row>
+    <row r="95" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="17"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="9"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+    </row>
+    <row r="96" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="17"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="9"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+    </row>
+    <row r="97" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="17"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="9"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
-    </row>
-    <row r="98" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+    </row>
+    <row r="98" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="17"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="9"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
-    </row>
-    <row r="99" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+    </row>
+    <row r="99" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="17"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="9"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
-    </row>
-    <row r="100" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+    </row>
+    <row r="100" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="17"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="9"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
-    </row>
-    <row r="101" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+    </row>
+    <row r="101" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="17"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="9"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
-    </row>
-    <row r="102" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+    </row>
+    <row r="102" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -4999,21 +5205,23 @@
       <c r="E102" s="16"/>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="9"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-      <c r="T102" s="12"/>
-    </row>
-    <row r="103" spans="1:20" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="12"/>
+    </row>
+    <row r="103" spans="1:22" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -5021,18 +5229,20 @@
       <c r="E103" s="16"/>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="9"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5041,10 +5251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FCBB74-D74A-4968-ADFC-E2201B965C19}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5053,7 +5263,7 @@
     <col min="5" max="5" width="27.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5069,11 +5279,11 @@
       <c r="E1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G1">
+      <c r="F1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5089,11 +5299,11 @@
       <c r="E2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5109,11 +5319,11 @@
       <c r="E3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5129,11 +5339,11 @@
       <c r="E4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5149,11 +5359,11 @@
       <c r="E5" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5169,11 +5379,11 @@
       <c r="E6" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5189,11 +5399,11 @@
       <c r="E7" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5209,11 +5419,11 @@
       <c r="E8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5229,11 +5439,11 @@
       <c r="E9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G9">
+      <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5249,11 +5459,11 @@
       <c r="E10" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G10">
+      <c r="F10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5269,11 +5479,11 @@
       <c r="E11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G11">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5289,11 +5499,11 @@
       <c r="E12" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5309,11 +5519,11 @@
       <c r="E13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G13">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5329,11 +5539,11 @@
       <c r="E14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G14">
+      <c r="F14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="23">
         <v>1081</v>
       </c>
@@ -5349,11 +5559,11 @@
       <c r="E15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="1">
+      <c r="F15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="23">
         <v>40</v>
       </c>
@@ -5369,11 +5579,11 @@
       <c r="E16" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G16">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="23">
         <v>40</v>
       </c>
@@ -5389,11 +5599,11 @@
       <c r="E17" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G17">
+      <c r="F17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -5409,11 +5619,11 @@
       <c r="E18" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G18">
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A19" s="23">
         <v>16</v>
       </c>
@@ -5429,11 +5639,11 @@
       <c r="E19" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G19">
+      <c r="F19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A20" s="23">
         <v>18</v>
       </c>
@@ -5449,11 +5659,11 @@
       <c r="E20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G20">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A21" s="23">
         <v>18</v>
       </c>
@@ -5469,11 +5679,11 @@
       <c r="E21" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G21">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A22" s="23">
         <v>1089</v>
       </c>
@@ -5489,7 +5699,7 @@
       <c r="E22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G22">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
